--- a/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_uniferr.xlsx
+++ b/Paper_Code/Cir_Sym/Results/Cirsym_Full_Results_d1000_n900_uniferr.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,25 @@
         <v>0.02547857375445822</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0008057032459667561</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.963</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1734571177058186</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.007062027547697499</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0002233209194957748</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +546,25 @@
         <v>0.02547601262804468</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0008056222560383321</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.963</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1734625994600106</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.007060299853023365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0002232662849930588</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +580,25 @@
         <v>0.02678257410956538</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0008469393578848262</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.953</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1760365799698995</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.007477472397389681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0002364584391679108</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +614,25 @@
         <v>0.02783157273738358</v>
       </c>
       <c r="D5" t="n">
+        <v>0.000880111607147794</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.957</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1849041705598254</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.008562133421327334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0002707584324164448</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +648,25 @@
         <v>0.02179211538534236</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0006891271965087978</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.955</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1450119201510479</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.005143090550099999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0001626388035080433</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +682,25 @@
         <v>3.328100367624277</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1052437744333642</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.952</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3585223560138412</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1.010275419341851</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03194771389201978</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +716,25 @@
         <v>1.859350339133175</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0587978203986734</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.95</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3503742625735705</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1.263084073717492</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.03994222549231297</v>
       </c>
     </row>
     <row r="9">
@@ -672,16 +750,25 @@
         <v>0.8238526576248841</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0260525085447752</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.959</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006270486424512856</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3224712953724831</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.7002728039941605</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.02214457044094204</v>
       </c>
     </row>
     <row r="10">
@@ -697,16 +784,25 @@
         <v>4.349750955374569</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1375512027347706</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.957</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4171825610770479</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>2.943420696136809</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0930791351187069</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +818,25 @@
         <v>5.454338694149833</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1724813340350199</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.93</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5834419895118885</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>3.211305969523576</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1015504112738976</v>
       </c>
     </row>
     <row r="12">
@@ -747,16 +852,25 @@
         <v>0.02350575214996172</v>
       </c>
       <c r="D12" t="n">
+        <v>0.000743317149092788</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.956</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1592500223621844</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.005606468130902854</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0001772920892280006</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +886,25 @@
         <v>0.0240590996284495</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0007608155327881121</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.953</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.006692607862410587</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1574790924377895</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.005717144744055306</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001807919910407516</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +920,25 @@
         <v>0.02511665694437792</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0007942584315331928</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2318426190328258</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007331507348424335</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1617277111485744</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.005937064886467214</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0001877464765744539</v>
       </c>
     </row>
     <row r="15">
@@ -822,16 +954,25 @@
         <v>0.0285011897217749</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0007942584315331928</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.91</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2861817604250837</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009049861877399014</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1560162481196558</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.006769144936525415</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002140591581121622</v>
       </c>
     </row>
     <row r="16">
@@ -847,16 +988,25 @@
         <v>0.0205020325668473</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0006483311957418579</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1330663291931215</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.003748203368842492</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0001185285977905847</v>
       </c>
     </row>
     <row r="17">
@@ -872,16 +1022,25 @@
         <v>0.0292388963010432</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0009246150858076879</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.86</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3469870314579495</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01097269337947616</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1495473104469393</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.004844463653559815</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0001531953918714989</v>
       </c>
     </row>
     <row r="18">
@@ -897,16 +1056,25 @@
         <v>0.03033450681850657</v>
       </c>
       <c r="D18" t="n">
+        <v>0.0009592613324438871</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.851</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3560884721526379</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01126050620531777</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.1515176546466955</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.00512624508015262</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000162106102975147</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1090,25 @@
         <v>0.02756277897085433</v>
       </c>
       <c r="D19" t="n">
+        <v>0.0008716116019169144</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.905</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.293214938227915</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.00927227048785787</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.1613841733838824</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.005616730351521763</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0001776166091380696</v>
       </c>
     </row>
     <row r="20">
@@ -947,16 +1124,25 @@
         <v>0.0291801319580475</v>
       </c>
       <c r="D20" t="n">
+        <v>0.0009227567941169899</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.895</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.3065534211193866</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.009694070352540258</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.1610309486476471</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.006300045835775717</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0001992249420451038</v>
       </c>
     </row>
     <row r="21">
@@ -972,16 +1158,25 @@
         <v>0.02750730589781733</v>
       </c>
       <c r="D21" t="n">
+        <v>0.0008698573893208565</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.917</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1646033857854856</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.008530494157858436</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.000269757911055926</v>
       </c>
     </row>
     <row r="22">
@@ -997,16 +1192,25 @@
         <v>0.02897638106760596</v>
       </c>
       <c r="D22" t="n">
+        <v>0.0009163136252261629</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.915</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2788816953476868</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.008819013550278738</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.1677997412509884</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.008538052142635423</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0002699969155200876</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,22 +1250,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1297,25 @@
         <v>0.03177510572708038</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001004817069902346</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.530936040009842</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.03213642918438162</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001016243120873531</v>
       </c>
     </row>
     <row r="3">
@@ -1103,16 +1331,25 @@
         <v>0.03178735341850824</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001005204375912256</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5613128416810107</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.03189568637328344</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001008630164739712</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1365,25 @@
         <v>0.03292876980541064</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001041299131324771</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5391266699618468</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.03432472260078</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001085443034719233</v>
       </c>
     </row>
     <row r="5">
@@ -1153,16 +1399,25 @@
         <v>0.03259441397614977</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001030725871630584</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6304827180375738</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04196603407190049</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00132708252031436</v>
       </c>
     </row>
     <row r="6">
@@ -1178,16 +1433,25 @@
         <v>0.02817246442022238</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008908915486795774</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4493389607877009</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02390549608582421</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007559581622744452</v>
       </c>
     </row>
     <row r="7">
@@ -1203,16 +1467,25 @@
         <v>0.02662024919338188</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0008418061933234685</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.947</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1723439530914218</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.005992794901426352</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0001895088143875152</v>
       </c>
     </row>
     <row r="8">
@@ -1228,16 +1501,25 @@
         <v>0.02734858548817132</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0008648382092644931</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1705206691146841</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.006146888132273662</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001943816702024314</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1535,25 @@
         <v>0.02684279698872095</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0008488437725386732</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.949</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1750345246917195</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.006394544616267636</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002022132558697313</v>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1569,25 @@
         <v>0.03191896008305026</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0008488437725386732</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.887</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1690701141654659</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.007280041311797704</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002302151200540078</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1603,25 @@
         <v>0.0217950873497174</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0006892211782742977</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.955</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.144096419677039</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.004027373958885968</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001273567469932898</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1637,25 @@
         <v>0.03634951979897851</v>
       </c>
       <c r="D12" t="n">
+        <v>0.00114947274418158</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.787</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4094276492861713</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01294723908792914</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1599387604745596</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.005294448740121666</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0001674251697379337</v>
       </c>
     </row>
     <row r="13">
@@ -1353,16 +1671,25 @@
         <v>0.03667705393598288</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001159830283025494</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.774</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4182391660282428</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01322588371338566</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.162339032369452</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.0056021328722057</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.00017715499631071</v>
       </c>
     </row>
     <row r="14">
@@ -1378,16 +1705,25 @@
         <v>0.03227398927244492</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001020593152807665</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.887</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1710289719240546</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.007042620568657862</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0002227072169330909</v>
       </c>
     </row>
     <row r="15">
@@ -1403,16 +1739,25 @@
         <v>0.03297783771328953</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001042850794813937</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.868</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3384907679686405</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0107040179372047</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1710261298662476</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.00633577330164421</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002003547437168074</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1773,25 @@
         <v>0.03123140371173774</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0009876237025332804</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.92</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.181227262267771</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.006709103164128221</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002121604705568766</v>
       </c>
     </row>
     <row r="17">
@@ -1453,16 +1807,25 @@
         <v>0.03153650833837901</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0009972719579816975</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.921</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1855792515464444</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.007122739042044923</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002252407855186778</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,22 +1865,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1912,25 @@
         <v>0.1265596018094976</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004002166014819798</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.935084130635459</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.1401378104197551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.004431546672353032</v>
       </c>
     </row>
     <row r="3">
@@ -1559,16 +1946,25 @@
         <v>0.1265549491937931</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004002018886192761</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.068489866555441</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.144629010287944</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.004573570882458282</v>
       </c>
     </row>
     <row r="4">
@@ -1584,16 +1980,25 @@
         <v>0.1234991213548497</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003905385125108647</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.988663362825319</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1410158430760269</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.004459312502891296</v>
       </c>
     </row>
     <row r="5">
@@ -1609,16 +2014,25 @@
         <v>0.1255694574746533</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003970854901715593</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.349624306159626</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.2045610828204923</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.006468789423430965</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +2048,25 @@
         <v>0.1050238210242742</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003321144830105844</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.445754854612655</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.09696434707575677</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.003066281885904788</v>
       </c>
     </row>
     <row r="7">
@@ -1659,16 +2082,25 @@
         <v>0.2547045468322932</v>
       </c>
       <c r="D7" t="n">
+        <v>0.008054464983910714</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.8456856792055139</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.04194742029295886</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001326493900941176</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2116,25 @@
         <v>0.232606150205708</v>
       </c>
       <c r="D8" t="n">
+        <v>0.007355652324132808</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.7444035564260045</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.03731546283013119</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001180018544865674</v>
       </c>
     </row>
     <row r="9">
@@ -1709,16 +2150,25 @@
         <v>0.2547372361957257</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008055498712347795</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.091</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2876091097305508</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.00909499862561837</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.8634725405739705</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.04366049101879776</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001380665953807263</v>
       </c>
     </row>
     <row r="10">
@@ -1734,16 +2184,25 @@
         <v>0.2551237481197836</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008055498712347795</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.043</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006414904519944158</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7280885975509622</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.03900628552844967</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001233487053327656</v>
       </c>
     </row>
     <row r="11">
@@ -1759,16 +2218,25 @@
         <v>0.197791863542493</v>
       </c>
       <c r="D11" t="n">
+        <v>0.006254727914434982</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.079</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008529888627643388</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6680525314690241</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.02668290541845227</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0008437875571315743</v>
       </c>
     </row>
     <row r="12">
@@ -1784,16 +2252,25 @@
         <v>0.253146951605581</v>
       </c>
       <c r="D12" t="n">
+        <v>0.008005209498020546</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.03160696125855823</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.0009994998749374613</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.8639601095441649</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03577389268499449</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001131269816550191</v>
       </c>
     </row>
     <row r="13">
@@ -1809,16 +2286,25 @@
         <v>0.2528885469318058</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.007997038024748921</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.8800794675490231</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03754007639815056</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001187121449548858</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +2320,25 @@
         <v>0.2790916420654795</v>
       </c>
       <c r="D14" t="n">
+        <v>0.008825652648433754</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.031</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.9238445392772572</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.04395124298028637</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001389860338131919</v>
       </c>
     </row>
     <row r="15">
@@ -1859,16 +2354,25 @@
         <v>0.2555475235530244</v>
       </c>
       <c r="D15" t="n">
+        <v>0.008081122248430819</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.9271501048136477</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04088591526815663</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00129292616468029</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2388,25 @@
         <v>0.2193251951865949</v>
       </c>
       <c r="D16" t="n">
+        <v>0.006935671650506385</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.1</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.009486832980505138</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.9789653472427611</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.0438396936496018</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001386332838567613</v>
       </c>
     </row>
     <row r="17">
@@ -1909,16 +2422,25 @@
         <v>0.2168739191605584</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00685815549634597</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.105</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3065534211193866</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009694070352540258</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.006079225499187</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.04628286963482876</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001463592846947044</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,22 +2480,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1990,16 +2527,25 @@
         <v>0.05083472795986173</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001607535245882076</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.07064402838402</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.03564461241736568</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001127181615527959</v>
       </c>
     </row>
     <row r="3">
@@ -2015,16 +2561,25 @@
         <v>0.05076585251879585</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001605357213195908</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.112026206248508</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.03689317692993604</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001166664692181762</v>
       </c>
     </row>
     <row r="4">
@@ -2040,16 +2595,25 @@
         <v>0.05156769600244863</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001630713730548976</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.090714250176122</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.03588396480607277</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001134750602645123</v>
       </c>
     </row>
     <row r="5">
@@ -2065,16 +2629,25 @@
         <v>0.04663894203895137</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001474852845036638</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.207484171008411</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05221432657258546</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001651161984612232</v>
       </c>
     </row>
     <row r="6">
@@ -2090,16 +2663,25 @@
         <v>0.04688846114066914</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001482743331848112</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.9057061328874912</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02617280581910715</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0008276567914568752</v>
       </c>
     </row>
     <row r="7">
@@ -2115,16 +2697,25 @@
         <v>0.06560688283760908</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002074671799506554</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.377</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4846349141364044</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01532550162311172</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2386956807238322</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01122516843857977</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003549709938494799</v>
       </c>
     </row>
     <row r="8">
@@ -2140,16 +2731,25 @@
         <v>0.06181458911681868</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001954748942366032</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.422</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4938785275753544</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01561781034588396</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2205237571101571</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.009937500705754276</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003142513647971425</v>
       </c>
     </row>
     <row r="9">
@@ -2165,16 +2765,25 @@
         <v>0.06712007935354851</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002122523274884553</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.362</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.480578817677184</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01519723659090691</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2440329160474737</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01197703277874692</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003787470319133578</v>
       </c>
     </row>
     <row r="10">
@@ -2190,16 +2799,25 @@
         <v>0.06557812146516684</v>
       </c>
       <c r="D10" t="n">
+        <v>0.002122523274884553</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.291</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4542235132619182</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01436380868711359</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2193294763674715</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01071320383874493</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003387812516809321</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2833,25 @@
         <v>0.05190470626394112</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001641370930760627</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.406</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4910845141113697</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01552945588229027</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1885945013388229</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.006667879680678042</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002108568695489884</v>
       </c>
     </row>
     <row r="12">
@@ -2240,16 +2867,25 @@
         <v>0.07868743227029455</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.002488315092043649</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2535482746072291</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01081940826564342</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003421397305468531</v>
       </c>
     </row>
     <row r="13">
@@ -2265,16 +2901,25 @@
         <v>0.07789091154813915</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002463126895188317</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2590446706617242</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01132292507567274</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003580623301456025</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2935,25 @@
         <v>0.08480915019801687</v>
       </c>
       <c r="D14" t="n">
+        <v>0.002681900810490534</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.047</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.006692607862410587</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2711145015810665</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01304053294152558</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004123778599767619</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2969,25 @@
         <v>0.07826870831803635</v>
       </c>
       <c r="D15" t="n">
+        <v>0.002475073878043614</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.015</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2728959627468273</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.0122269644112506</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.000386650564093716</v>
       </c>
     </row>
     <row r="16">
@@ -2340,16 +3003,25 @@
         <v>0.07115366497811698</v>
       </c>
       <c r="D16" t="n">
+        <v>0.002250076451994045</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.15</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3570714214271425</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01129158979063622</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2873051142233512</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01333352123738451</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004216429634036168</v>
       </c>
     </row>
     <row r="17">
@@ -2365,16 +3037,25 @@
         <v>0.07046876714307101</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00222841808076141</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.147</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3541059163583687</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01119781228633522</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2961348510993278</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01396842463140168</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004417203715962726</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,22 +3095,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2446,16 +3142,25 @@
         <v>0.02623081783249065</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0008294912923963154</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.976</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1530490117576719</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004839834707921336</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1951417643419907</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.007536633428920146</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0002383292752515239</v>
       </c>
     </row>
     <row r="3">
@@ -2471,16 +3176,25 @@
         <v>0.0262332987012351</v>
       </c>
       <c r="D3" t="n">
+        <v>0.000829569744354399</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.984</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2171621050859331</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.007651856567273302</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0002419729508150107</v>
       </c>
     </row>
     <row r="4">
@@ -2496,16 +3210,25 @@
         <v>0.0276033730587441</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0008728952996896019</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.972</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1965835803934874</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00794240835646025</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000251161005135689</v>
       </c>
     </row>
     <row r="5">
@@ -2521,16 +3244,25 @@
         <v>0.02807558357730725</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0008878279074270895</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.987</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.234497960298398</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01009387979847516</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0003191965059114289</v>
       </c>
     </row>
     <row r="6">
@@ -2546,16 +3278,25 @@
         <v>0.02263756447112718</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0007158626440766691</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.983</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1796875274673611</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.006018014590871212</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0001903063309927938</v>
       </c>
     </row>
     <row r="7">
@@ -2571,16 +3312,25 @@
         <v>0.0239741529930201</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0007581292843128636</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.953</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1590319737176172</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.005600777873566966</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0001771121474914617</v>
       </c>
     </row>
     <row r="8">
@@ -2596,16 +3346,25 @@
         <v>0.02427801867692752</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0007677383609519855</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.944</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1572958120193713</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.005716858970654265</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001807829540923318</v>
       </c>
     </row>
     <row r="9">
@@ -2621,16 +3380,25 @@
         <v>0.02519745436107879</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0007968134701915177</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1614552190981689</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.005936794314434297</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0001877379203355022</v>
       </c>
     </row>
     <row r="10">
@@ -2646,16 +3414,25 @@
         <v>0.02906334493476287</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0007968134701915177</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.888</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1557319432641682</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.006699326923974749</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.000211851318698499</v>
       </c>
     </row>
     <row r="11">
@@ -2671,16 +3448,25 @@
         <v>0.02015635781387825</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0006374000002518754</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.947</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1329356688185315</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.003729675661429765</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001179427002381307</v>
       </c>
     </row>
     <row r="12">
@@ -2696,16 +3482,25 @@
         <v>0.02587882853530118</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0008183604134851092</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.909</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2876091097305508</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.00909499862561837</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.15000614404395</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.004798667489785697</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0001517471900152558</v>
       </c>
     </row>
     <row r="13">
@@ -2721,16 +3516,25 @@
         <v>0.02588879698405686</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0008186756435131752</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.924</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008379976133617566</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1518697161520565</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.005143557634000702</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001626535739978894</v>
       </c>
     </row>
     <row r="14">
@@ -2746,16 +3550,25 @@
         <v>0.02547038358551895</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0008054442500840596</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.946</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1621962837542195</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.005759863644940986</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0001821428813001289</v>
       </c>
     </row>
     <row r="15">
@@ -2771,16 +3584,25 @@
         <v>0.02588347585156944</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0008185073745292574</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1617817348868541</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.006491732060726897</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.000205286592714355</v>
       </c>
     </row>
     <row r="16">
@@ -2796,16 +3618,25 @@
         <v>0.02557938883900021</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0008088912988633073</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.946</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1649796518858755</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.007995111312986492</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002528276189561666</v>
       </c>
     </row>
     <row r="17">
@@ -2821,16 +3652,25 @@
         <v>0.02697215836038399</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0008529345382956607</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1682278080958131</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.008070728228308892</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002552188357767153</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,22 +3710,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2902,16 +3757,25 @@
         <v>0.1114101790167031</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003523099202198801</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.203659033669684</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04732417692849098</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001496521874868229</v>
       </c>
     </row>
     <row r="3">
@@ -2927,16 +3791,25 @@
         <v>0.1113997512880967</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003522769448466618</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.299392613458043</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.05112779451760077</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001616802824166882</v>
       </c>
     </row>
     <row r="4">
@@ -2952,16 +3825,25 @@
         <v>0.1121053260214582</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003545081680635502</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.213152195141094</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04649742741966363</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001470377759845029</v>
       </c>
     </row>
     <row r="5">
@@ -2977,16 +3859,25 @@
         <v>0.1201200082052803</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003798528184868004</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.350406570197454</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.06339633226310468</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002004768052522278</v>
       </c>
     </row>
     <row r="6">
@@ -3002,16 +3893,25 @@
         <v>0.08253181665891485</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002609885200735989</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.121946530034004</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03727402153670598</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001178708056101604</v>
       </c>
     </row>
     <row r="7">
@@ -3027,16 +3927,25 @@
         <v>0.1416090799571209</v>
       </c>
       <c r="D7" t="n">
+        <v>0.00447807230025401</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.91</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2861817604250837</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.009049861877399014</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7741233003995358</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.03799360428311616</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001201463260537759</v>
       </c>
     </row>
     <row r="8">
@@ -3052,16 +3961,25 @@
         <v>0.1437178831547095</v>
       </c>
       <c r="D8" t="n">
+        <v>0.004544758512668272</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.84</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3666060555964671</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01159310139695155</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6782275382643279</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.03341474815730657</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001056667116180031</v>
       </c>
     </row>
     <row r="9">
@@ -3077,16 +3995,25 @@
         <v>0.134797205343969</v>
       </c>
       <c r="D9" t="n">
+        <v>0.00426266191112363</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.913</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.00891240708226459</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7898266235531183</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.03946573789723604</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001248016212944901</v>
       </c>
     </row>
     <row r="10">
@@ -3102,16 +4029,25 @@
         <v>0.1607260882369135</v>
       </c>
       <c r="D10" t="n">
+        <v>0.00426266191112363</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.761</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4264727423880686</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01348625225924534</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6625377288086939</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.03497902157463949</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001106133785000302</v>
       </c>
     </row>
     <row r="11">
@@ -3127,16 +4063,25 @@
         <v>0.1088241974964936</v>
       </c>
       <c r="D11" t="n">
+        <v>0.003441323286289135</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.899</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3013287241535396</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009528850927577782</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6080830055574061</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.02443532349477821</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0007727127760652466</v>
       </c>
     </row>
     <row r="12">
@@ -3152,16 +4097,25 @@
         <v>0.14976262575081</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004735910057399442</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.894</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.810291525012332</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03247326731301964</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001026894877766381</v>
       </c>
     </row>
     <row r="13">
@@ -3177,16 +4131,25 @@
         <v>0.1493383801913905</v>
       </c>
       <c r="D13" t="n">
+        <v>0.00472249423484966</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.894</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.8233170388396477</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03454874870612972</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001092527362201652</v>
       </c>
     </row>
     <row r="14">
@@ -3202,16 +4165,25 @@
         <v>0.1317811795755428</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004167286802023766</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.958</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.8761713444654042</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.03832497632242483</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001211942164508861</v>
       </c>
     </row>
     <row r="15">
@@ -3227,16 +4199,25 @@
         <v>0.1369700389993266</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004331372944399621</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.8770728837878017</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04178469515799269</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001321348080350661</v>
       </c>
     </row>
     <row r="16">
@@ -3252,16 +4233,25 @@
         <v>0.1289389457689898</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004077407477309387</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.961</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.8912291402548999</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04930910518780685</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001559290817782943</v>
       </c>
     </row>
     <row r="17">
@@ -3277,16 +4267,25 @@
         <v>0.1264507953727239</v>
       </c>
       <c r="D17" t="n">
+        <v>0.003998725253176879</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.966</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.181229136730273</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005730968504537431</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.9120236944697687</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.04973548940054223</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001572774270488759</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,22 +4325,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3358,16 +4372,25 @@
         <v>0.0342235118546024</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001082242469903169</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.997</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3399402381545235</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.0122816932805858</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0003883812429023657</v>
       </c>
     </row>
     <row r="3">
@@ -3383,16 +4406,25 @@
         <v>0.03422918995701096</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001082422027267156</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.369606603755691</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01333596632351562</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004217202838161129</v>
       </c>
     </row>
     <row r="4">
@@ -3408,16 +4440,25 @@
         <v>0.0348004168190955</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001100485806715736</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.998</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3441731190820255</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01219908879770479</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0003857690597939218</v>
       </c>
     </row>
     <row r="5">
@@ -3433,16 +4474,25 @@
         <v>0.03724538800760378</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001177802584407487</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.998</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3898769058441315</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0164633233560103</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005206159966083967</v>
       </c>
     </row>
     <row r="6">
@@ -3458,16 +4508,25 @@
         <v>0.02748501314324561</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008691524305231988</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3089455164514073</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01017135859256163</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003216466005081933</v>
       </c>
     </row>
     <row r="7">
@@ -3483,16 +4542,25 @@
         <v>0.03516939601124953</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001112153953279893</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2482820976228452</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.00785136930732468</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2171803804198074</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.009999272014316491</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003162047450881991</v>
       </c>
     </row>
     <row r="8">
@@ -3508,16 +4576,25 @@
         <v>0.03463018639590432</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001095102648072352</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.911</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2847437444440176</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009004387819280108</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2002155773278929</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.008955453213946099</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002831962963514486</v>
       </c>
     </row>
     <row r="9">
@@ -3533,16 +4610,25 @@
         <v>0.03759109768513558</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001188734884309115</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2218990023391003</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01077277964346462</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003406652040444484</v>
       </c>
     </row>
     <row r="10">
@@ -3558,16 +4644,25 @@
         <v>0.04033810915162818</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001188734884309115</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.86</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3469870314579494</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01097269337947616</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1986834713372195</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.009600974908810185</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003036094846996759</v>
       </c>
     </row>
     <row r="11">
@@ -3583,16 +4678,25 @@
         <v>0.0285021477523859</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0009013170510418831</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.927</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1711409607451665</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.006057667605742692</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001915602694236579</v>
       </c>
     </row>
     <row r="12">
@@ -3608,16 +4712,25 @@
         <v>0.04695859008845635</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001484961003897298</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.859</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3480215510568275</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01100540776164155</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2377977170403154</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.009843406709995547</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003112758513897045</v>
       </c>
     </row>
     <row r="13">
@@ -3633,16 +4746,25 @@
         <v>0.047687755698157</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001508019245078492</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.863</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3438473498516456</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0108734079294396</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2423340634221282</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01037215350188147</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003279962930683699</v>
       </c>
     </row>
     <row r="14">
@@ -3658,16 +4780,25 @@
         <v>0.04235785025984831</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001339472836094757</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2571283529418958</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01149555989021972</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003635215223196948</v>
       </c>
     </row>
     <row r="15">
@@ -3683,16 +4814,25 @@
         <v>0.04399111510365476</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001391121205381832</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.924</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008379976133617566</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2581565817865548</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01249451489927083</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003951112534060513</v>
       </c>
     </row>
     <row r="16">
@@ -3708,16 +4848,25 @@
         <v>0.04165934646168529</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00131738420653002</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.944</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2615455043835052</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01463842765709689</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004629077276002844</v>
       </c>
     </row>
     <row r="17">
@@ -3733,16 +4882,25 @@
         <v>0.04156545751259485</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001314415177267566</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.95</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2684380261580215</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01468312092677401</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004643210528828828</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,22 +4940,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3814,16 +4987,25 @@
         <v>0.1118319405078872</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003536436471613708</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.988</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9688090438165087</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04829182871561433</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00152712171116065</v>
       </c>
     </row>
     <row r="3">
@@ -3839,16 +5021,25 @@
         <v>0.1118226927028105</v>
       </c>
       <c r="D3" t="n">
+        <v>0.003536144030339712</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.988</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.9692684801299808</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04828552067104924</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001526922233276575</v>
       </c>
     </row>
     <row r="4">
@@ -3864,16 +5055,25 @@
         <v>0.1120803298148654</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003544291231178529</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.991</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9814152225624023</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04863838832450404</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001538080888251737</v>
       </c>
     </row>
     <row r="5">
@@ -3889,16 +5089,25 @@
         <v>0.1194004800738399</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003775774707508835</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.99</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.9948954028106229</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05355480639695696</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001693551678637396</v>
       </c>
     </row>
     <row r="6">
@@ -3914,16 +5123,25 @@
         <v>0.08260855535335195</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002612311891326879</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.998</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8434206469147546</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03554596355978946</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001124062064742815</v>
       </c>
     </row>
     <row r="7">
@@ -3939,16 +5157,25 @@
         <v>1.12177926467968</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03547377508336665</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.997</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.308924015110824</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1.769898717834541</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.05596911176168827</v>
       </c>
     </row>
     <row r="8">
@@ -3964,16 +5191,25 @@
         <v>0.9091123017319322</v>
       </c>
       <c r="D8" t="n">
+        <v>0.02874865522351144</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.996</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.048599228956068</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.1985654484588646</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.006279190817427832</v>
       </c>
     </row>
     <row r="9">
@@ -3989,16 +5225,25 @@
         <v>3.863705216945329</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1221810869302224</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.996</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.386273600075976</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>4.095734078375187</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1295184837803618</v>
       </c>
     </row>
     <row r="10">
@@ -4014,16 +5259,25 @@
         <v>0.1000063397617511</v>
       </c>
       <c r="D10" t="n">
+        <v>0.003162478141037941</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.998</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.040640302677499</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.08762641895724646</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002770990671090555</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +5293,25 @@
         <v>0.07486049548244635</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00236729672493276</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.995</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.07053367989832945</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.751225978822724</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.045382423899159</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0330578948542898</v>
       </c>
     </row>
     <row r="12">
@@ -4064,16 +5327,25 @@
         <v>0.1342160862763494</v>
       </c>
       <c r="D12" t="n">
+        <v>0.004244285312669316</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.925</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.7748155050653323</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03833303757564097</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001212197083718445</v>
       </c>
     </row>
     <row r="13">
@@ -4089,16 +5361,25 @@
         <v>0.1286994663078221</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004069834471808187</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.872</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3340898082851376</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01056484737230027</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.678565127788638</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03333611316559792</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001054180459404153</v>
       </c>
     </row>
     <row r="14">
@@ -4114,16 +5395,25 @@
         <v>0.1297910899263819</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004104354641631025</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.927</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.7908124019289205</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.0402168287196288</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001271767790229002</v>
       </c>
     </row>
     <row r="15">
@@ -4139,16 +5429,25 @@
         <v>0.1436083236293937</v>
       </c>
       <c r="D15" t="n">
+        <v>0.004104354641631025</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.827</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3782472736187268</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01196122903384096</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.6633077608571669</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.03591452913364628</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00113571713154796</v>
       </c>
     </row>
     <row r="16">
@@ -4164,16 +5463,25 @@
         <v>0.1059878663390304</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00335163061972828</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.921</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.6084828797151222</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02426574490719045</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0007673502302735298</v>
       </c>
     </row>
     <row r="17">
@@ -4189,16 +5497,25 @@
         <v>0.1610647218840194</v>
       </c>
       <c r="D17" t="n">
+        <v>0.005093313718550676</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.855</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.352100837829165</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01113440613593738</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.8078140588641932</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.03264690723855662</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00103238585434077</v>
       </c>
     </row>
     <row r="18">
@@ -4214,16 +5531,25 @@
         <v>0.1606672346400568</v>
       </c>
       <c r="D18" t="n">
+        <v>0.005080744068232829</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.874</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.331849363416596</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01049399828473399</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.8214064604349751</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.03438379802907205</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001087311163790761</v>
       </c>
     </row>
     <row r="19">
@@ -4239,16 +5565,25 @@
         <v>0.1362745109957637</v>
       </c>
       <c r="D19" t="n">
+        <v>0.004309378417722737</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2411555514600483</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007626008130076967</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.8717963335689395</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.03792493744972922</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001199291824605618</v>
       </c>
     </row>
     <row r="20">
@@ -4264,16 +5599,25 @@
         <v>0.1422483207086519</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004498286867734369</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.8729899729026732</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.04055879601250918</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.001282581745536841</v>
       </c>
     </row>
     <row r="21">
@@ -4289,16 +5633,25 @@
         <v>0.1303113605639053</v>
       </c>
       <c r="D21" t="n">
+        <v>0.004120807043773844</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.956</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.8891333992756364</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.05070394153752109</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001603399416065865</v>
       </c>
     </row>
     <row r="22">
@@ -4314,16 +5667,25 @@
         <v>0.126746158651808</v>
       </c>
       <c r="D22" t="n">
+        <v>0.004008065460167697</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.973</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005125524363418829</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.909655402843751</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.05105496193867079</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001614499655794055</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,22 +5725,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4395,16 +5772,25 @@
         <v>0.03417758001552675</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001080789977617175</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.985</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003843826218756515</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.279858107327765</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01321846071273333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004180044301369001</v>
       </c>
     </row>
     <row r="3">
@@ -4420,16 +5806,25 @@
         <v>0.0342109457839222</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001081845095857288</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.985</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003843826218756515</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2800825895393255</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01323797011684486</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004186213716647509</v>
       </c>
     </row>
     <row r="4">
@@ -4445,16 +5840,25 @@
         <v>0.03496656747306481</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001105739951728431</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.988</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003443254274665176</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2849102730607049</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0134000170324836</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004237457450769867</v>
       </c>
     </row>
     <row r="5">
@@ -4470,16 +5874,25 @@
         <v>0.03773706364216153</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001193350733159598</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.977</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2919360449195551</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01454029268205301</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004598044272076602</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +5908,25 @@
         <v>0.02743306623799566</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008675097251433309</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.991</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2364311016528468</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00971985420862476</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003073687782402768</v>
       </c>
     </row>
     <row r="7">
@@ -4520,16 +5942,25 @@
         <v>0.1032685300311365</v>
       </c>
       <c r="D7" t="n">
+        <v>0.003265637655158903</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.989</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3875829290795632</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.07750072746200243</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.002450788190998883</v>
       </c>
     </row>
     <row r="8">
@@ -4545,16 +5976,25 @@
         <v>0.04154777004745198</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001313855850508703</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.987</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3459419898661967</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.05058806987737651</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001599735232442647</v>
       </c>
     </row>
     <row r="9">
@@ -4570,16 +6010,25 @@
         <v>0.05658345352277115</v>
       </c>
       <c r="D9" t="n">
+        <v>0.00178932591010235</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.995</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3935070722227813</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1570726156303091</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.004967072234319412</v>
       </c>
     </row>
     <row r="10">
@@ -4595,16 +6044,25 @@
         <v>2.734823340953846</v>
       </c>
       <c r="D10" t="n">
+        <v>0.086482707556054</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.99</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3541290378126226</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.1693426652870101</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.005355085273504834</v>
       </c>
     </row>
     <row r="11">
@@ -4620,16 +6078,25 @@
         <v>5.52246615845848</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1746357136192914</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.986</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.7508385042509578</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>5.678729091716843</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1795771814488444</v>
       </c>
     </row>
     <row r="12">
@@ -4645,16 +6112,25 @@
         <v>0.03462960313834828</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001095084203848956</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2172622816942024</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01016627669616925</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003214858968338642</v>
       </c>
     </row>
     <row r="13">
@@ -4670,16 +6146,25 @@
         <v>0.03353784964601617</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001060559927056829</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.92</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2002465457437007</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.008960541028673462</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002833571871799628</v>
       </c>
     </row>
     <row r="14">
@@ -4695,16 +6180,25 @@
         <v>0.03582683746267009</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001132944077426852</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2220890631213996</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01098473974206234</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.000347367970890875</v>
       </c>
     </row>
     <row r="15">
@@ -4720,16 +6214,25 @@
         <v>0.03716261860917207</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001132944077426852</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.885</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3190219428189854</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01008835962879992</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1989269405852327</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.009733101694887673</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003077877005389028</v>
       </c>
     </row>
     <row r="16">
@@ -4745,16 +6248,25 @@
         <v>0.0279207487575232</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0008829316005108965</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1712142106205073</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.006065741194177292</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0001918155787070992</v>
       </c>
     </row>
     <row r="17">
@@ -4770,16 +6282,25 @@
         <v>0.04752533782354067</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00150288314091338</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.866</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3406523154185217</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01077237206932624</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2370685108943291</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.009842424088832576</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003112447781801837</v>
       </c>
     </row>
     <row r="18">
@@ -4795,16 +6316,25 @@
         <v>0.04691126969574921</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001483464601690016</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.876</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3295815528818322</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01042228381881821</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2417718057669882</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.0103307794941906</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003266879320660452</v>
       </c>
     </row>
     <row r="19">
@@ -4820,16 +6350,25 @@
         <v>0.04194491415958471</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001326414650045351</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.931</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2558445267675784</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01138262716100869</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000359950275852836</v>
       </c>
     </row>
     <row r="20">
@@ -4845,16 +6384,25 @@
         <v>0.04314770967037016</v>
       </c>
       <c r="D20" t="n">
+        <v>0.001364450383780427</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.927</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2569584760065405</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.01222402206759035</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0003865575190174626</v>
       </c>
     </row>
     <row r="21">
@@ -4870,16 +6418,25 @@
         <v>0.04135991436844626</v>
       </c>
       <c r="D21" t="n">
+        <v>0.001307915332338148</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.260935308699736</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01512314248831025</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0004782357564232674</v>
       </c>
     </row>
     <row r="22">
@@ -4895,16 +6452,25 @@
         <v>0.04041781886644303</v>
       </c>
       <c r="D22" t="n">
+        <v>0.001278123656740848</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.955</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.2677466956614351</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01519498567896599</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.000480507637591726</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,22 +6510,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4976,16 +6557,25 @@
         <v>0.03200610948456872</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001012122050119549</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.983</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2588652898196161</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01093390290012121</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0003457603687950356</v>
       </c>
     </row>
     <row r="3">
@@ -5001,16 +6591,25 @@
         <v>0.03201610094250501</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001012438007761794</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.992</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2861778635478876</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01112598809608709</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0003518346360355554</v>
       </c>
     </row>
     <row r="4">
@@ -5026,16 +6625,25 @@
         <v>0.03414305428553292</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00107969817817057</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.977</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2622162941563409</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01170425318659299</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0003701209838091757</v>
       </c>
     </row>
     <row r="5">
@@ -5051,16 +6659,25 @@
         <v>0.03359797170278919</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001062461153426996</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.993</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3123429158016005</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01502040365671005</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004749868693032561</v>
       </c>
     </row>
     <row r="6">
@@ -5076,16 +6693,25 @@
         <v>0.02823793513763325</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0008929619145502135</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.988</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003443254274665175</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2357383610244583</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.008769542557908521</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0002773172852076999</v>
       </c>
     </row>
     <row r="7">
@@ -5101,16 +6727,25 @@
         <v>0.02597691119802922</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0008214620596170561</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.951</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006826346021115543</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1726073821447607</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.006026832734533033</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0001905851851798531</v>
       </c>
     </row>
     <row r="8">
@@ -5126,16 +6761,25 @@
         <v>0.02643937276986691</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0008360863785901428</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.944</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1709585157850309</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.006345626954987343</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002006663435951877</v>
       </c>
     </row>
     <row r="9">
@@ -5151,16 +6795,25 @@
         <v>0.02693873851306419</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0008518777099298044</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.948</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.00702111102319284</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1753025871120348</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00656276341704284</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002075328014268487</v>
       </c>
     </row>
     <row r="10">
@@ -5176,16 +6829,25 @@
         <v>0.03126773399784059</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0008518777099298044</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.896</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3052605444534227</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009653186002558949</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1696873173073052</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.007797239912368247</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002465703758585536</v>
       </c>
     </row>
     <row r="11">
@@ -5201,16 +6863,25 @@
         <v>0.0219195320972317</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0006931564667241954</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.957</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006414904519944158</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1443391051812692</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00411376889079249</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001300887946244875</v>
       </c>
     </row>
     <row r="12">
@@ -5226,16 +6897,25 @@
         <v>0.0283961333065585</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0008979645799049319</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.922</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.170563533447593</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.005716186457257514</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0001807616873514247</v>
       </c>
     </row>
     <row r="13">
@@ -5251,16 +6931,25 @@
         <v>0.02861360037501383</v>
       </c>
       <c r="D13" t="n">
+        <v>0.000904841492428918</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1735335664576562</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.006025967241841627</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001905578158978224</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +6965,25 @@
         <v>0.02902354898312413</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0009178052056813611</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.929</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1804154482976744</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.006593878595046442</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0002085167497497782</v>
       </c>
     </row>
     <row r="15">
@@ -5301,16 +6999,25 @@
         <v>0.02920000037232015</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0009233850885429636</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.945</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1827986424639524</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.006519120257732705</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0002061526835497926</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +7033,25 @@
         <v>0.03088484493275972</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0009766645516863064</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1955385672801937</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.007390049924750836</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0002336938978456858</v>
       </c>
     </row>
     <row r="17">
@@ -5351,16 +7067,25 @@
         <v>0.03155474260970928</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0009978485762704692</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.944</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2010841111260002</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.007883926846523318</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002493116574116243</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +7099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,22 +7125,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5432,16 +7172,25 @@
         <v>0.1364287083523489</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004314254566282601</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.639253450717245</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.06348516539498798</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002007577202806652</v>
       </c>
     </row>
     <row r="3">
@@ -5457,16 +7206,25 @@
         <v>0.1363849622848962</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004312871194164344</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.758082104623392</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.06835207625296907</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.002161482437608897</v>
       </c>
     </row>
     <row r="4">
@@ -5482,16 +7240,25 @@
         <v>0.1386209374231585</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004383578936448529</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.658856412895155</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.06314968988267768</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001996968535625527</v>
       </c>
     </row>
     <row r="5">
@@ -5507,16 +7274,25 @@
         <v>0.1494041280188105</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00472457336370821</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.854079203206564</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.09199564244781938</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002909157649455771</v>
       </c>
     </row>
     <row r="6">
@@ -5532,16 +7308,25 @@
         <v>0.1007584278794451</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003186261255568561</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.513407523053517</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.04948178719203481</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001564751502225775</v>
       </c>
     </row>
     <row r="7">
@@ -5557,16 +7342,25 @@
         <v>0.1879802763515498</v>
       </c>
       <c r="D7" t="n">
+        <v>0.005944458284587842</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.866</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3406523154185217</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01077237206932624</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9129246921581324</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.05085187275906702</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001608077412037226</v>
       </c>
     </row>
     <row r="8">
@@ -5582,16 +7376,25 @@
         <v>0.1843686758691889</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005830249449359609</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.804</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3969685126052191</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01255324659201754</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.8059125318737991</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0423013132934633</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001337684980237027</v>
       </c>
     </row>
     <row r="9">
@@ -5607,16 +7410,25 @@
         <v>0.1809581814150093</v>
       </c>
       <c r="D9" t="n">
+        <v>0.005722400145133808</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.874</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.331849363416596</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01049399828473399</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9328874775939887</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0525831869898092</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001662826375183302</v>
       </c>
     </row>
     <row r="10">
@@ -5632,16 +7444,25 @@
         <v>0.2044774718539061</v>
       </c>
       <c r="D10" t="n">
+        <v>0.005722400145133808</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.726</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4460089685196925</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01410404197384565</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7876291388734121</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.04536675092983029</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001434622629798254</v>
       </c>
     </row>
     <row r="11">
@@ -5657,16 +7478,25 @@
         <v>0.1359346218233609</v>
       </c>
       <c r="D11" t="n">
+        <v>0.004298630178354513</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.896</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3052605444534227</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009653186002558949</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.7249689395837076</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.03032174734155098</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0009588578423545662</v>
       </c>
     </row>
     <row r="12">
@@ -5682,16 +7512,25 @@
         <v>0.1588230647042219</v>
       </c>
       <c r="D12" t="n">
+        <v>0.005022426294336379</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.918</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.9213546036047217</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.03849698307525082</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001217381495627459</v>
       </c>
     </row>
     <row r="13">
@@ -5707,16 +7546,25 @@
         <v>0.1659129036976192</v>
       </c>
       <c r="D13" t="n">
+        <v>0.005246626688966488</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.914</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2803640490505157</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008865889690267975</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.9407672600026147</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.04026397138474453</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001273258572196365</v>
       </c>
     </row>
     <row r="14">
@@ -5732,16 +7580,25 @@
         <v>0.151769478589625</v>
       </c>
       <c r="D14" t="n">
+        <v>0.004799372316393743</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.946</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.9745295403081734</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.04210713581315493</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001331544549156157</v>
       </c>
     </row>
     <row r="15">
@@ -5757,16 +7614,25 @@
         <v>0.1587835316893105</v>
       </c>
       <c r="D15" t="n">
+        <v>0.005021176150637446</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.9909945782316847</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.04316688418109998</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001365056735049683</v>
       </c>
     </row>
     <row r="16">
@@ -5782,16 +7648,25 @@
         <v>0.1382216307396143</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004370951750399254</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.976</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1530490117576719</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004839834707921336</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.056263609548837</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04778864182876139</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001511209544648803</v>
       </c>
     </row>
     <row r="17">
@@ -5807,16 +7682,25 @@
         <v>0.1427162255774302</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004513083318870585</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.981</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.090134020024722</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.05087278652786022</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001608738763475673</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +7714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5856,22 +7740,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5888,16 +7787,25 @@
         <v>0.04195384639060662</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001326697111991511</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.460360028692921</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01664022441829958</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005262100993817712</v>
       </c>
     </row>
     <row r="3">
@@ -5913,16 +7821,25 @@
         <v>0.04191067915871301</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001325332044260826</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4971860795527506</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01801941242356178</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0005698238535638999</v>
       </c>
     </row>
     <row r="4">
@@ -5938,16 +7855,25 @@
         <v>0.0430153079007161</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001360263472196989</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4680914930452924</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01658341599632289</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005244136593445083</v>
       </c>
     </row>
     <row r="5">
@@ -5963,16 +7889,25 @@
         <v>0.04515814836289323</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001428026037425465</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5315498265156769</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02402206043886564</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0007596442507703943</v>
       </c>
     </row>
     <row r="6">
@@ -5988,16 +7923,25 @@
         <v>0.03492778640351794</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001104513586629776</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.413933859988536</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0136056899188341</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000430249692815072</v>
       </c>
     </row>
     <row r="7">
@@ -6013,16 +7957,25 @@
         <v>0.04307795078037212</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001362244413986038</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.929</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2596033399772735</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01223410983441282</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003868765222140994</v>
       </c>
     </row>
     <row r="8">
@@ -6038,16 +7991,25 @@
         <v>0.04280774715081507</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001353699824971591</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.918</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2393152888931345</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01056618759840801</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003341321899559382</v>
       </c>
     </row>
     <row r="9">
@@ -6063,16 +8025,25 @@
         <v>0.04484105664513708</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001417998716872619</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.923</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2661257438293896</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01323806396142137</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004186243392908291</v>
       </c>
     </row>
     <row r="10">
@@ -6088,16 +8059,25 @@
         <v>0.04789595898999174</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001417998716872619</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.844</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3628553430776512</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.0114744934528719</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2381809481041202</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01157559786122437</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.000366052545196427</v>
       </c>
     </row>
     <row r="11">
@@ -6113,16 +8093,25 @@
         <v>0.03346662133476128</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001058307490082301</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2046626626238913</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.007217636862851541</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002282417181060321</v>
       </c>
     </row>
     <row r="12">
@@ -6138,16 +8127,25 @@
         <v>0.04999182313614565</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001580880254945221</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.898</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3026483107502832</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009570579919733181</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2703946029078195</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.0116984613383592</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003699378294863676</v>
       </c>
     </row>
     <row r="13">
@@ -6163,16 +8161,25 @@
         <v>0.05092357653037246</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001610344884378716</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.883</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3214202856074893</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01016420188701503</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2769109877328178</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01222743329979094</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003866653916512783</v>
       </c>
     </row>
     <row r="14">
@@ -6188,16 +8195,25 @@
         <v>0.04857442491583942</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001536058187668853</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.922</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2860035285946572</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01285440436407749</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004064919575529317</v>
       </c>
     </row>
     <row r="15">
@@ -6213,16 +8229,25 @@
         <v>0.04921285975420814</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001556247269937319</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.924</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008379976133617566</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2916957608378861</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01310346928155428</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.000414368081797617</v>
       </c>
     </row>
     <row r="16">
@@ -6238,16 +8263,25 @@
         <v>0.04660903218660832</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001473907012457805</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.954</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3099917838790563</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01455455758864471</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004602555231620534</v>
       </c>
     </row>
     <row r="17">
@@ -6263,16 +8297,25 @@
         <v>0.04680950875725946</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001480246638265377</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.965</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3208773499192021</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01539033590355682</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004866851541030505</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,22 +8355,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6344,16 +8402,25 @@
         <v>0.01991739436127528</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0006298433123742447</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.99</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1733719389203283</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.007256736419571148</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0002294781546534011</v>
       </c>
     </row>
     <row r="3">
@@ -6369,16 +8436,25 @@
         <v>0.01991907376096081</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0006298964196553252</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1733763111315091</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.007253252357207248</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0002293679789276012</v>
       </c>
     </row>
     <row r="4">
@@ -6394,16 +8470,25 @@
         <v>0.01968554640678534</v>
       </c>
       <c r="D4" t="n">
+        <v>0.000622511636303852</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.989</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1760353602272281</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.007456229681915578</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0002357866855220601</v>
       </c>
     </row>
     <row r="5">
@@ -6419,16 +8504,25 @@
         <v>0.01961257949268734</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0006202042198800167</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.996</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1847896487809451</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.008618563750616499</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0002725429161131156</v>
       </c>
     </row>
     <row r="6">
@@ -6444,16 +8538,25 @@
         <v>0.0170416807024458</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0005389052617706692</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.986</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1449570468690252</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0053142246207284</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000168050537992462</v>
       </c>
     </row>
     <row r="7">
@@ -6469,16 +8572,25 @@
         <v>7.859883167815839</v>
       </c>
       <c r="D7" t="n">
+        <v>0.248551329531175</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.972</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.175446184349073</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>47.57934389956235</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.504590962990547</v>
       </c>
     </row>
     <row r="8">
@@ -6494,16 +8606,25 @@
         <v>12.58059434885222</v>
       </c>
       <c r="D8" t="n">
+        <v>0.3978333246101593</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.969</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.05767818519236</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>70.25651478288114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.221706071791945</v>
       </c>
     </row>
     <row r="9">
@@ -6519,16 +8640,25 @@
         <v>10.92530775861131</v>
       </c>
       <c r="D9" t="n">
+        <v>0.3454885665552081</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.979</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H9" t="n">
         <v>7.239893919182243</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>108.3819784800627</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.427339093123524</v>
       </c>
     </row>
     <row r="10">
@@ -6544,16 +8674,25 @@
         <v>9.964888227958891</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3151174342934927</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.979</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.018205540062717</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>22.57440207777532</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7138652738220754</v>
       </c>
     </row>
     <row r="11">
@@ -6569,16 +8708,25 @@
         <v>8.879969307763536</v>
       </c>
       <c r="D11" t="n">
+        <v>0.280809285649215</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.928</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.7367730290981096</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>4.448786720720427</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1406829886178795</v>
       </c>
     </row>
     <row r="12">
@@ -6594,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6605,6 +8753,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6619,16 +8776,25 @@
         <v>0.008604266229603237</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0002720907888001553</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.995</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.0007603063762143376</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01073222862850758</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003393828683574904</v>
       </c>
     </row>
     <row r="14">
@@ -6644,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6655,6 +8821,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6669,16 +8844,25 @@
         <v>0.009415468158314975</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.993</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.001046388672360768</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01246931303440777</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003943143004635408</v>
       </c>
     </row>
     <row r="16">
@@ -6694,16 +8878,25 @@
         <v>0.00394376488245272</v>
       </c>
       <c r="D16" t="n">
+        <v>0.0001247127958473681</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.0001291607822497403</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.004082379840692616</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0001290961857054401</v>
       </c>
     </row>
     <row r="17">
@@ -6719,16 +8912,25 @@
         <v>0.02365744013196473</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0007481139442608295</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.946</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1493401222435392</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.004621033726588614</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0001461299172047581</v>
       </c>
     </row>
     <row r="18">
@@ -6744,16 +8946,25 @@
         <v>0.02313881093466404</v>
       </c>
       <c r="D18" t="n">
+        <v>0.0007317134490154791</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.946</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.151131659880906</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.004916235349553306</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000155465012180225</v>
       </c>
     </row>
     <row r="19">
@@ -6769,16 +8980,25 @@
         <v>0.02543036724545483</v>
       </c>
       <c r="D19" t="n">
+        <v>0.0008041788223017949</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.95</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.1611390993809692</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.005555679338076512</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000175686006578584</v>
       </c>
     </row>
     <row r="20">
@@ -6794,16 +9014,25 @@
         <v>0.02457746704794521</v>
       </c>
       <c r="D20" t="n">
+        <v>0.0007772077498924163</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.952</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.160851690323975</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.006394160608599413</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0002022011124810257</v>
       </c>
     </row>
     <row r="21">
@@ -6819,16 +9048,25 @@
         <v>0.02598415947232581</v>
       </c>
       <c r="D21" t="n">
+        <v>0.0008216912701758851</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.949</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1648307801666077</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.009465852460223767</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0002993365376941551</v>
       </c>
     </row>
     <row r="22">
@@ -6844,16 +9082,25 @@
         <v>0.02524668567265326</v>
       </c>
       <c r="D22" t="n">
+        <v>0.0007983703009592451</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.951</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006826346021115542</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.1679949306551789</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.009977399051411139</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0003155130612686263</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +9114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,22 +9140,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6925,16 +9187,25 @@
         <v>0.08282859885788328</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002619270277913325</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9678210095012043</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.047862999994064</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001513560956298679</v>
       </c>
     </row>
     <row r="3">
@@ -6950,16 +9221,25 @@
         <v>0.08286410750898547</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002620393160054556</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.998</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.968279364277568</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04784648171745937</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001513038602527766</v>
       </c>
     </row>
     <row r="4">
@@ -6975,16 +9255,25 @@
         <v>0.09031478841494882</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002856004377874266</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.997</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9817797395764858</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04839314405734865</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001530325583578638</v>
       </c>
     </row>
     <row r="5">
@@ -7000,16 +9289,25 @@
         <v>0.08780086141427894</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002776507025939142</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.996</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.994369888682071</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05221743423706498</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001651260257591821</v>
       </c>
     </row>
     <row r="6">
@@ -7025,16 +9323,25 @@
         <v>0.06781168862325629</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002144393880316176</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8434268785102776</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03467447591320335</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001096503205583695</v>
       </c>
     </row>
     <row r="7">
@@ -7050,16 +9357,25 @@
         <v>5.203271392560006</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1645418888448572</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.998</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.201428743226479</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>89.81225816756603</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.840112976125691</v>
       </c>
     </row>
     <row r="8">
@@ -7075,16 +9391,25 @@
         <v>4.996721804151573</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1580102173534476</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.995</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.196744286258069</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>4.657313380846769</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.14727718060655</v>
       </c>
     </row>
     <row r="9">
@@ -7100,16 +9425,25 @@
         <v>0.1899030881519697</v>
       </c>
       <c r="D9" t="n">
+        <v>0.006005262932599602</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.282454770802399</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.7811568642540722</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.02470234900917836</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +9459,25 @@
         <v>4.575688560666362</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1446959771528324</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.20500219300253</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>30.10157492281811</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9518953791431241</v>
       </c>
     </row>
     <row r="11">
@@ -7150,16 +9493,25 @@
         <v>5.211303061378847</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1647958725136541</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.993</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.782417539669134</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.233875686504597</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03901857518858409</v>
       </c>
     </row>
     <row r="12">
@@ -7175,16 +9527,25 @@
         <v>0.04238521773842577</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001340338271755963</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.01123048743532217</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.09109686742426151</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.002880735887670628</v>
       </c>
     </row>
     <row r="13">
@@ -7200,16 +9561,25 @@
         <v>0.0490906604979052</v>
       </c>
       <c r="D13" t="n">
+        <v>0.00155238299015436</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.037</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.04584360644493336</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1686393947517485</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.00533284590647771</v>
       </c>
     </row>
     <row r="14">
@@ -7225,16 +9595,25 @@
         <v>0.04920804979111569</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.001556095165548984</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.01000497461198726</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.08728995068765558</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.002760350610167727</v>
       </c>
     </row>
     <row r="15">
@@ -7250,16 +9629,25 @@
         <v>0.04726977026978896</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001556095165548984</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.047</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.04711783236804321</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1681886090559603</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005318590811124565</v>
       </c>
     </row>
     <row r="16">
@@ -7275,16 +9663,25 @@
         <v>0.04901439290879255</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001549971197221901</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.002</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.02160053167173277</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1118674480091725</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.003537559317394539</v>
       </c>
     </row>
     <row r="17">
@@ -7300,16 +9697,25 @@
         <v>0.1405133802882895</v>
       </c>
       <c r="D17" t="n">
+        <v>0.004443423234404019</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.91</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2861817604250837</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009049861877399014</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.8066720153343305</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.03105240376450981</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0009819632271903787</v>
       </c>
     </row>
     <row r="18">
@@ -7325,16 +9731,25 @@
         <v>0.1483256737817541</v>
       </c>
       <c r="D18" t="n">
+        <v>0.004690469646294638</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.897</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.8192741634253837</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.03242111855069082</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001025245789105202</v>
       </c>
     </row>
     <row r="19">
@@ -7350,16 +9765,25 @@
         <v>0.1258249139525262</v>
       </c>
       <c r="D19" t="n">
+        <v>0.003978933144846823</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.968</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.176</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.005565608681896348</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.8704125049022959</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.0361911185707512</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001144463657527915</v>
       </c>
     </row>
     <row r="20">
@@ -7375,16 +9799,25 @@
         <v>0.1362478433109144</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004308535111482264</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.947</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.8719839834706002</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.04024484539239997</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.001272653755213168</v>
       </c>
     </row>
     <row r="21">
@@ -7400,16 +9833,25 @@
         <v>0.1219840234689237</v>
       </c>
       <c r="D21" t="n">
+        <v>0.003857473523132326</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.973</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.00512552436341883</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.8902712496901356</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.05363751224160196</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001696167067086259</v>
       </c>
     </row>
     <row r="22">
@@ -7425,16 +9867,25 @@
         <v>0.1252800040161791</v>
       </c>
       <c r="D22" t="n">
+        <v>0.00396170157966168</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.973</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005125524363418829</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.9106895972835313</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.05789238086511377</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001830717827037086</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,22 +9925,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -7506,16 +9972,25 @@
         <v>0.02707149896732847</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0008560759641165418</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2796576639075798</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01286903853458495</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0004069547306576399</v>
       </c>
     </row>
     <row r="3">
@@ -7531,16 +10006,25 @@
         <v>0.02707209051070117</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0008560946703604667</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.998</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04467661580737736</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001412798640995949</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2798829015509205</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.012887042204991</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004075240567049009</v>
       </c>
     </row>
     <row r="4">
@@ -7556,16 +10040,25 @@
         <v>0.0276232944803586</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0008735252703549051</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.994</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2850085235855583</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01340021439954559</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004237519863714965</v>
       </c>
     </row>
     <row r="5">
@@ -7581,16 +10074,25 @@
         <v>0.02712964928057483</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0008579148384816494</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.997</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2917801683962782</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01469639459495711</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004647408031265219</v>
       </c>
     </row>
     <row r="6">
@@ -7606,16 +10108,25 @@
         <v>0.02316319557231815</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0007324845589645281</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.997</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2364449350019015</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.009367446997805898</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0002962246837397295</v>
       </c>
     </row>
     <row r="7">
@@ -7631,16 +10142,25 @@
         <v>7.891614757674835</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2495547705085023</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.993</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.885665853531894</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>110.6423601746187</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.498818638485002</v>
       </c>
     </row>
     <row r="8">
@@ -7656,16 +10176,25 @@
         <v>0.1782561729305253</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005636955134453117</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.985</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1215524578114322</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.003843826218756514</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3754700828703964</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.9125766056749615</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02885820613318219</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +10210,25 @@
         <v>0.91200949050969</v>
       </c>
       <c r="D9" t="n">
+        <v>0.02884027237700338</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.995</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H9" t="n">
         <v>77.67217571239813</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>2429.134209163527</v>
+      </c>
+      <c r="J9" t="n">
+        <v>76.81596843188603</v>
       </c>
     </row>
     <row r="10">
@@ -7706,16 +10244,25 @@
         <v>2.117585787208482</v>
       </c>
       <c r="D10" t="n">
+        <v>0.06696394228379454</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.991</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5405897164238538</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>5.870316065026284</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1856356935056017</v>
       </c>
     </row>
     <row r="11">
@@ -7731,16 +10278,25 @@
         <v>3.068239034473347</v>
       </c>
       <c r="D11" t="n">
+        <v>0.09702623754771664</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.986</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5866990742197583</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.902426540475706</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.02853723288889361</v>
       </c>
     </row>
     <row r="12">
@@ -7756,16 +10312,25 @@
         <v>0.01127694296520078</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.000356608248138474</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.001279911826239633</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01649527296568481</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0005216263319776448</v>
       </c>
     </row>
     <row r="13">
@@ -7781,16 +10346,25 @@
         <v>0.01458525239571111</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0004612261781887458</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.005</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.005238480083386546</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.03148680393113155</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0009957001666151921</v>
       </c>
     </row>
     <row r="14">
@@ -7806,16 +10380,25 @@
         <v>0.007678272754374615</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.0002428083039983837</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.0006563824362911411</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01198627152451959</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003790391867070068</v>
       </c>
     </row>
     <row r="15">
@@ -7831,16 +10414,25 @@
         <v>0.01513439270862165</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0002428083039983837</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.022</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.008521962592059765</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.03977496892619464</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001257794956691968</v>
       </c>
     </row>
     <row r="16">
@@ -7856,16 +10448,25 @@
         <v>0.009781151741918563</v>
       </c>
       <c r="D16" t="n">
+        <v>0.000309307176441861</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.001688659154883119</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01680982472002797</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0005315733318349064</v>
       </c>
     </row>
     <row r="17">
@@ -7881,16 +10482,25 @@
         <v>0.03874200577323829</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001225129793668258</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2367372520931412</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.009484999111961724</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002999420079847348</v>
       </c>
     </row>
     <row r="18">
@@ -7906,16 +10516,25 @@
         <v>0.04104392195804998</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001297922774936359</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.926</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2617708921939183</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.00827792244467173</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2411515151132851</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.009947778905851679</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003145763900226901</v>
       </c>
     </row>
     <row r="19">
@@ -7931,16 +10550,25 @@
         <v>0.0374580903701747</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001184528823701718</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.953</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2554403914607299</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01093258997642283</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0003457188505022265</v>
       </c>
     </row>
     <row r="20">
@@ -7956,16 +10584,25 @@
         <v>0.03966812435443182</v>
       </c>
       <c r="D20" t="n">
+        <v>0.00125441623466801</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.949</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2566636317658195</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.01216790169173661</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0003847828369090371</v>
       </c>
     </row>
     <row r="21">
@@ -7981,16 +10618,25 @@
         <v>0.03734937295732992</v>
       </c>
       <c r="D21" t="n">
+        <v>0.001181090877242614</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.958</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.2612633868978145</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.01587080603857334</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.000501878953846459</v>
       </c>
     </row>
     <row r="22">
@@ -8006,16 +10652,25 @@
         <v>0.03912814263612668</v>
       </c>
       <c r="D22" t="n">
+        <v>0.001237340513421053</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.965</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.2680523241503312</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.01720155418003086</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0005439609050368758</v>
       </c>
     </row>
   </sheetData>
